--- a/lab-436.xlsx
+++ b/lab-436.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alen_marz/Documents/physics-4sem-labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5583FDE4-BD03-E34D-8AD5-B3CF266CA3C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5F4E9-F892-E04B-BB0A-65C8FF4EBFB4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16760" activeTab="1" xr2:uid="{C77F3758-3F27-C948-A86A-5F2B240CA6EB}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16760" activeTab="2" xr2:uid="{C77F3758-3F27-C948-A86A-5F2B240CA6EB}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
     <sheet name="table2" sheetId="2" r:id="rId2"/>
     <sheet name="table3" sheetId="3" r:id="rId3"/>
+    <sheet name="table4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -527,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283473C2-9A9D-B44D-B396-23DA949AD060}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -634,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDC4F3E-DF03-1947-8632-9FCF8DAA7149}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -675,4 +676,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2058BE-8531-3C44-BB62-9F166ABCAC65}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lab-436.xlsx
+++ b/lab-436.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alen_marz/Documents/physics-4sem-labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5F4E9-F892-E04B-BB0A-65C8FF4EBFB4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4CC42E-7B48-0741-8F1C-6EA876F6145A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16760" activeTab="2" xr2:uid="{C77F3758-3F27-C948-A86A-5F2B240CA6EB}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16760" activeTab="3" xr2:uid="{C77F3758-3F27-C948-A86A-5F2B240CA6EB}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="table3" sheetId="3" r:id="rId3"/>
     <sheet name="table4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>№</t>
   </si>
@@ -67,13 +67,31 @@
   </si>
   <si>
     <t>z_n (№20)</t>
+  </si>
+  <si>
+    <t>0.02549</t>
+  </si>
+  <si>
+    <t>0.04961</t>
+  </si>
+  <si>
+    <t>0.11804</t>
+  </si>
+  <si>
+    <t>0.01270</t>
+  </si>
+  <si>
+    <t>0.15980</t>
+  </si>
+  <si>
+    <t>d, мм</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +99,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,10 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -635,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDC4F3E-DF03-1947-8632-9FCF8DAA7149}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -680,12 +705,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2058BE-8531-3C44-BB62-9F166ABCAC65}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>